--- a/data/trans_dic/P78C_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -50,34 +51,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -504,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -520,15 +493,6 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -543,85 +507,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -633,15 +543,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,60 +557,15 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,52%</t>
         </is>
@@ -724,62 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,03; 1,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,07; 2,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 1,44</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,64</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,68</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,58</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 2,28</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,26</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 1,18</t>
+          <t>0,19; 1,25</t>
         </is>
       </c>
     </row>
@@ -796,60 +607,15 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,79%</t>
         </is>
@@ -864,62 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,0; 1,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,47; 2,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,64</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,53</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,63</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,54</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 2,14</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 1,57</t>
+          <t>0,4; 1,61</t>
         </is>
       </c>
     </row>
@@ -936,60 +657,15 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,34%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,8%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>1,23%</t>
         </is>
@@ -1004,62 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,3; 2,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,1; 2,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 2,72</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,16</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,78</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,25</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 2,56</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,23</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 2,28</t>
+          <t>0,38; 2,31</t>
         </is>
       </c>
     </row>
@@ -1076,60 +707,15 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>2,43%</t>
         </is>
@@ -1144,62 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,26; 5,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,62; 2,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,34; 5,67</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 2,15</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>1,58; 3,52</t>
+          <t>1,57; 3,45</t>
         </is>
       </c>
     </row>
@@ -1216,60 +757,15 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,06%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>3,3%</t>
         </is>
@@ -1284,62 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>2,5; 6,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>1,87; 4,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 6,53</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,36</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 4,4</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,22</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 4,42</t>
+          <t>2,35; 4,56</t>
         </is>
       </c>
     </row>
@@ -1361,55 +812,10 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>2,47%</t>
         </is>
@@ -1424,62 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0; 1,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>2,11; 5,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,7</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 5,36</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 4,41</t>
+          <t>1,53; 4,46</t>
         </is>
       </c>
     </row>
@@ -1496,60 +857,15 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>1,95%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>2,0%</t>
         </is>
@@ -1564,62 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,5; 2,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,44; 2,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 2,75</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,49; 2,62</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 2,44</t>
+          <t>1,6; 2,45</t>
         </is>
       </c>
     </row>
@@ -1631,19 +902,622 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con retrasos en pagos no resueltos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2071</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2858</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4929</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>164; 6946</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>327; 9821</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1783; 11929</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2447</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6572</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8028</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1813; 8042</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3369; 13402</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8927</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1337</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2023; 18182</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>163; 4209</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3212; 19259</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>36439</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12441</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>48880</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23405; 53343</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6068; 21655</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>31612; 69449</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>19302</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24110</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>43412</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11886; 31940</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15751; 37688</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30940; 59967</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>24725</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>24725</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4080</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>16039; 44622</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>15280; 44699</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>69186</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>69596</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>138782</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>50684; 94519</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>51459; 92365</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>111344; 170182</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>